--- a/natmiOut/OldD7/LR-pairs_lrc2p/Dll3-Notch4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Dll3-Notch4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Dll3</t>
   </si>
   <si>
     <t>Notch4</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.914715408349046</v>
+        <v>0.1321426666666667</v>
       </c>
       <c r="H2">
-        <v>0.914715408349046</v>
+        <v>0.396428</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1128743075049564</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1128743075049564</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.015633779984</v>
+        <v>46.05975733333333</v>
       </c>
       <c r="N2">
-        <v>45.015633779984</v>
+        <v>138.179272</v>
       </c>
       <c r="O2">
-        <v>0.911371540619546</v>
+        <v>0.8970651351272991</v>
       </c>
       <c r="P2">
-        <v>0.911371540619546</v>
+        <v>0.897065135127299</v>
       </c>
       <c r="Q2">
-        <v>41.17649383514917</v>
+        <v>6.086459160046221</v>
       </c>
       <c r="R2">
-        <v>41.17649383514917</v>
+        <v>54.778132440416</v>
       </c>
       <c r="S2">
-        <v>0.911371540619546</v>
+        <v>0.101255605914334</v>
       </c>
       <c r="T2">
-        <v>0.911371540619546</v>
+        <v>0.101255605914334</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.914715408349046</v>
+        <v>0.1321426666666667</v>
       </c>
       <c r="H3">
-        <v>0.914715408349046</v>
+        <v>0.396428</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1128743075049564</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1128743075049564</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.51754008604994</v>
+        <v>2.770761666666667</v>
       </c>
       <c r="N3">
-        <v>2.51754008604994</v>
+        <v>8.312284999999999</v>
       </c>
       <c r="O3">
-        <v>0.05096927876232632</v>
+        <v>0.05396367312415441</v>
       </c>
       <c r="P3">
-        <v>0.05096927876232632</v>
+        <v>0.0539636731241544</v>
       </c>
       <c r="Q3">
-        <v>2.302832707846263</v>
+        <v>0.366135835331111</v>
       </c>
       <c r="R3">
-        <v>2.302832707846263</v>
+        <v>3.29522251798</v>
       </c>
       <c r="S3">
-        <v>0.05096927876232632</v>
+        <v>0.006091112234312755</v>
       </c>
       <c r="T3">
-        <v>0.05096927876232632</v>
+        <v>0.006091112234312755</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.914715408349046</v>
+        <v>0.1321426666666667</v>
       </c>
       <c r="H4">
-        <v>0.914715408349046</v>
+        <v>0.396428</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1128743075049564</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1128743075049564</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.43893951667141</v>
+        <v>1.802173666666667</v>
       </c>
       <c r="N4">
-        <v>1.43893951667141</v>
+        <v>5.406521</v>
       </c>
       <c r="O4">
-        <v>0.02913229058546055</v>
+        <v>0.03509934175535083</v>
       </c>
       <c r="P4">
-        <v>0.02913229058546055</v>
+        <v>0.03509934175535083</v>
       </c>
       <c r="Q4">
-        <v>1.316220147581668</v>
+        <v>0.2381440341097777</v>
       </c>
       <c r="R4">
-        <v>1.316220147581668</v>
+        <v>2.143296306988</v>
       </c>
       <c r="S4">
-        <v>0.02913229058546055</v>
+        <v>0.003961813894515025</v>
       </c>
       <c r="T4">
-        <v>0.02913229058546055</v>
+        <v>0.003961813894515026</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,557 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.1321426666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.396428</v>
+      </c>
+      <c r="I5">
+        <v>0.1128743075049564</v>
+      </c>
+      <c r="J5">
+        <v>0.1128743075049564</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.7122493333333333</v>
+      </c>
+      <c r="N5">
+        <v>2.136748</v>
+      </c>
+      <c r="O5">
+        <v>0.01387184999319569</v>
+      </c>
+      <c r="P5">
+        <v>0.01387184999319569</v>
+      </c>
+      <c r="Q5">
+        <v>0.09411852623822221</v>
+      </c>
+      <c r="R5">
+        <v>0.847066736144</v>
+      </c>
+      <c r="S5">
+        <v>0.001565775461794598</v>
+      </c>
+      <c r="T5">
+        <v>0.001565775461794598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.983774</v>
+      </c>
+      <c r="H6">
+        <v>2.951322</v>
+      </c>
+      <c r="I6">
+        <v>0.8403251712143011</v>
+      </c>
+      <c r="J6">
+        <v>0.8403251712143012</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>46.05975733333333</v>
+      </c>
+      <c r="N6">
+        <v>138.179272</v>
+      </c>
+      <c r="O6">
+        <v>0.8970651351272991</v>
+      </c>
+      <c r="P6">
+        <v>0.897065135127299</v>
+      </c>
+      <c r="Q6">
+        <v>45.31239171084267</v>
+      </c>
+      <c r="R6">
+        <v>407.811525397584</v>
+      </c>
+      <c r="S6">
+        <v>0.7538264132662278</v>
+      </c>
+      <c r="T6">
+        <v>0.7538264132662278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.983774</v>
+      </c>
+      <c r="H7">
+        <v>2.951322</v>
+      </c>
+      <c r="I7">
+        <v>0.8403251712143011</v>
+      </c>
+      <c r="J7">
+        <v>0.8403251712143012</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.770761666666667</v>
+      </c>
+      <c r="N7">
+        <v>8.312284999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.05396367312415441</v>
+      </c>
+      <c r="P7">
+        <v>0.0539636731241544</v>
+      </c>
+      <c r="Q7">
+        <v>2.725803287863333</v>
+      </c>
+      <c r="R7">
+        <v>24.53222959077</v>
+      </c>
+      <c r="S7">
+        <v>0.04534703285740763</v>
+      </c>
+      <c r="T7">
+        <v>0.04534703285740763</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.983774</v>
+      </c>
+      <c r="H8">
+        <v>2.951322</v>
+      </c>
+      <c r="I8">
+        <v>0.8403251712143011</v>
+      </c>
+      <c r="J8">
+        <v>0.8403251712143012</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.802173666666667</v>
+      </c>
+      <c r="N8">
+        <v>5.406521</v>
+      </c>
+      <c r="O8">
+        <v>0.03509934175535083</v>
+      </c>
+      <c r="P8">
+        <v>0.03509934175535083</v>
+      </c>
+      <c r="Q8">
+        <v>1.772931596751333</v>
+      </c>
+      <c r="R8">
+        <v>15.956384370762</v>
+      </c>
+      <c r="S8">
+        <v>0.02949486037007445</v>
+      </c>
+      <c r="T8">
+        <v>0.02949486037007445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.983774</v>
+      </c>
+      <c r="H9">
+        <v>2.951322</v>
+      </c>
+      <c r="I9">
+        <v>0.8403251712143011</v>
+      </c>
+      <c r="J9">
+        <v>0.8403251712143012</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.7122493333333333</v>
+      </c>
+      <c r="N9">
+        <v>2.136748</v>
+      </c>
+      <c r="O9">
+        <v>0.01387184999319569</v>
+      </c>
+      <c r="P9">
+        <v>0.01387184999319569</v>
+      </c>
+      <c r="Q9">
+        <v>0.7006923756506667</v>
+      </c>
+      <c r="R9">
+        <v>6.306231380856</v>
+      </c>
+      <c r="S9">
+        <v>0.01165686472059127</v>
+      </c>
+      <c r="T9">
+        <v>0.01165686472059127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.05478966666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.164369</v>
+      </c>
+      <c r="I10">
+        <v>0.04680052128074248</v>
+      </c>
+      <c r="J10">
+        <v>0.04680052128074248</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>46.05975733333333</v>
+      </c>
+      <c r="N10">
+        <v>138.179272</v>
+      </c>
+      <c r="O10">
+        <v>0.8970651351272991</v>
+      </c>
+      <c r="P10">
+        <v>0.897065135127299</v>
+      </c>
+      <c r="Q10">
+        <v>2.523598751040888</v>
+      </c>
+      <c r="R10">
+        <v>22.712388759368</v>
+      </c>
+      <c r="S10">
+        <v>0.04198311594673729</v>
+      </c>
+      <c r="T10">
+        <v>0.04198311594673728</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.05478966666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.164369</v>
+      </c>
+      <c r="I11">
+        <v>0.04680052128074248</v>
+      </c>
+      <c r="J11">
+        <v>0.04680052128074248</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.770761666666667</v>
+      </c>
+      <c r="N11">
+        <v>8.312284999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.05396367312415441</v>
+      </c>
+      <c r="P11">
+        <v>0.0539636731241544</v>
+      </c>
+      <c r="Q11">
+        <v>0.1518091081294444</v>
+      </c>
+      <c r="R11">
+        <v>1.366281973165</v>
+      </c>
+      <c r="S11">
+        <v>0.002525528032434019</v>
+      </c>
+      <c r="T11">
+        <v>0.002525528032434019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.914715408349046</v>
-      </c>
-      <c r="H5">
-        <v>0.914715408349046</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.421171105180447</v>
-      </c>
-      <c r="N5">
-        <v>0.421171105180447</v>
-      </c>
-      <c r="O5">
-        <v>0.008526890032667161</v>
-      </c>
-      <c r="P5">
-        <v>0.008526890032667161</v>
-      </c>
-      <c r="Q5">
-        <v>0.3852516994599515</v>
-      </c>
-      <c r="R5">
-        <v>0.3852516994599515</v>
-      </c>
-      <c r="S5">
-        <v>0.008526890032667161</v>
-      </c>
-      <c r="T5">
-        <v>0.008526890032667161</v>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.05478966666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.164369</v>
+      </c>
+      <c r="I12">
+        <v>0.04680052128074248</v>
+      </c>
+      <c r="J12">
+        <v>0.04680052128074248</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.802173666666667</v>
+      </c>
+      <c r="N12">
+        <v>5.406521</v>
+      </c>
+      <c r="O12">
+        <v>0.03509934175535083</v>
+      </c>
+      <c r="P12">
+        <v>0.03509934175535083</v>
+      </c>
+      <c r="Q12">
+        <v>0.0987404944721111</v>
+      </c>
+      <c r="R12">
+        <v>0.8886644502489999</v>
+      </c>
+      <c r="S12">
+        <v>0.00164266749076135</v>
+      </c>
+      <c r="T12">
+        <v>0.00164266749076135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.05478966666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.164369</v>
+      </c>
+      <c r="I13">
+        <v>0.04680052128074248</v>
+      </c>
+      <c r="J13">
+        <v>0.04680052128074248</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7122493333333333</v>
+      </c>
+      <c r="N13">
+        <v>2.136748</v>
+      </c>
+      <c r="O13">
+        <v>0.01387184999319569</v>
+      </c>
+      <c r="P13">
+        <v>0.01387184999319569</v>
+      </c>
+      <c r="Q13">
+        <v>0.03902390355688888</v>
+      </c>
+      <c r="R13">
+        <v>0.3512151320119999</v>
+      </c>
+      <c r="S13">
+        <v>0.0006492098108098225</v>
+      </c>
+      <c r="T13">
+        <v>0.0006492098108098224</v>
       </c>
     </row>
   </sheetData>
